--- a/src/cal/wiki.xlsx
+++ b/src/cal/wiki.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiwei\OneDrive\桌面\backend\fastapi_start\src\cal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D0997CE-184C-4738-9465-9E520DF11983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>Unnamed: 0.1</t>
   </si>
@@ -31,9 +38,6 @@
     <t>氣候</t>
   </si>
   <si>
-    <t>變遷</t>
-  </si>
-  <si>
     <t>海岸</t>
   </si>
   <si>
@@ -49,9 +53,6 @@
     <t>土地</t>
   </si>
   <si>
-    <t>調適</t>
-  </si>
-  <si>
     <t>計畫</t>
   </si>
   <si>
@@ -64,9 +65,6 @@
     <t>政策</t>
   </si>
   <si>
-    <t>影響</t>
-  </si>
-  <si>
     <t>教育</t>
   </si>
   <si>
@@ -130,9 +128,6 @@
     <t>目標</t>
   </si>
   <si>
-    <t>資源</t>
-  </si>
-  <si>
     <t>污染</t>
   </si>
   <si>
@@ -151,9 +146,6 @@
     <t>空氣</t>
   </si>
   <si>
-    <t>多樣</t>
-  </si>
-  <si>
     <t>風險</t>
   </si>
   <si>
@@ -181,9 +173,6 @@
     <t>海洋</t>
   </si>
   <si>
-    <t>排放</t>
-  </si>
-  <si>
     <t>國家</t>
   </si>
   <si>
@@ -199,9 +188,6 @@
     <t>溫室</t>
   </si>
   <si>
-    <t>推動</t>
-  </si>
-  <si>
     <t>氣體</t>
   </si>
   <si>
@@ -214,12 +200,6 @@
     <t>英語</t>
   </si>
   <si>
-    <t>變化</t>
-  </si>
-  <si>
-    <t>保護</t>
-  </si>
-  <si>
     <t>工程</t>
   </si>
   <si>
@@ -241,9 +221,6 @@
     <t>策略</t>
   </si>
   <si>
-    <t>方案</t>
-  </si>
-  <si>
     <t>交通</t>
   </si>
   <si>
@@ -253,9 +230,6 @@
     <t>災害</t>
   </si>
   <si>
-    <t>提供</t>
-  </si>
-  <si>
     <t>產業</t>
   </si>
   <si>
@@ -268,9 +242,6 @@
     <t>瀏覽器</t>
   </si>
   <si>
-    <t>暖化</t>
-  </si>
-  <si>
     <t>疾病</t>
   </si>
   <si>
@@ -284,9 +255,6 @@
   </si>
   <si>
     <t>國際</t>
-  </si>
-  <si>
-    <t>方式</t>
   </si>
   <si>
     <t>主管</t>
@@ -1419,7 +1387,7 @@
 臺灣目前有三所著名之藝術大學，分別是國立臺灣藝術大學、國立臺北藝術大學、國立臺南藝術大學。
 舞蹈方面，除了充分表現臺灣文化意含的民俗舞蹈（如：八家將、新港舞步、陣頭），而臺灣在現代舞的成就相當非凡，尤其林懷民先生所創立的雲門舞集。
 舞臺表演
-臺灣的美術在日治時代主要以在「帝展」、「臺展」等官辦美展中活躍的畫家為主，日本文化和西洋畫風是當時的主流。1950年代，畫壇主流以大陸來臺的水墨畫家與日治時期的本土西畫家為主，繪畫技巧比較傳統。1960年代開始，新生代畫家引入西方的抽象畫等風格，美術風格走向西化。1970年代鄉土意識抬頭後，繪畫題材再趨本土化。解嚴之後，美術界生態多元自由，風格也日益前衛。戲劇方面在戰前，歌仔戲、布袋戲等本土劇種極受臺灣百姓歡迎。日治中期以降，還有新劇等劇場表演出現。此外，也有日本傳統藝能傳入。二戰之後，由於早期政府的大力推廣下，京劇等大陸劇種在臺灣得到大力扶持；另一方面歌仔戲、布袋戲等</t>
+臺灣的美術在日治時代主要以在「帝展」、「臺展」等官辦美展中活躍的畫家為主，日本文化和西洋畫風是當時的主流。1950年代，畫壇主流以大陸來臺的水墨畫家與日治時期的本土西畫家為主，繪畫技巧比較傳統。1960年代開始，新生代畫家引入西方的抽象畫等風格，美術風格走向西化。1970年代鄉土意識抬頭後，繪畫題材再趨本土化。解嚴之後，美術界生態多元自由，風格也日益前衛。戲劇方面在戰前，歌仔戲、布袋戲等本土劇種極受臺灣百姓歡迎。日治中期以降，還有新劇等劇場表演出現。此外，也有日本傳統藝能傳入。二戰之後，由於早期政府的大力推廣下，京劇等大陸劇種在臺灣得到大力扶持；另一方面歌仔戲、布袋戲</t>
   </si>
   <si>
     <t>永續性（英語：sustainability），也稱可持續性，是人們在滿足人類需求與未來發展時，在資源開發、投資方向、技術發展和制度變革中保持環境平衡與和諧的過程。永續性可以是一種想法、一種生活系統的性質、一種生產方法或一種生活方式。可持續發展的定義最常見的引述來自布倫特蘭委員會，該委員會是由聯合國在1983年正式召開的世界環境與發展委員會（WCED）。當該委員會成立時，聯合國大會確認，環境問題是全球性的和堅定的，建立可持續發展政策是所有國家的共同利益。從這事實看出，在涵蓋所有人類活動的定義，可持續性在界定上部分地方是有困難的。有些人認為永續性能夠以環境、經濟與社會三個領域來定義，並可考量到文化、技術與政治等子領域。根據聯合國在1987年發表的《我們共同的未來》 中，永續發展被定義為“在不損害後代子孫滿足其自身需求的情況下，滿足當代需求的發展模式”  。永續發展可能是永續性的組織原則，但某些人可能將這兩個術語是(視)為矛盾的（即，發展本質上是不可持續的）   。
@@ -4980,16 +4948,132 @@
 參見
 == 參考資料 ==</t>
   </si>
+  <si>
+    <t>變遷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「變遷」是一個涵蓋廣泛的詞彙，指的是事物、情勢或狀態的不斷變化和演進過程。這個詞彙常用來描述社會、自然、個人生命等方面的變動。變遷可能包括重大的轉變、進展，也可能是日常生活中微小而持續的變動。這種變化可以是自然發展的結果，也可能是由外在因素引起的。在歷史、科技、文化等領域，變遷是不可避免的現象，反映了社會的演進和個體成長。透過變遷，人們能夠適應新的環境、應對挑戰，並在變動中不斷學習和成長。總的來說，變遷是生命和社會不斷演進的本質之一，是一種不可避免且豐富多彩的過程。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>調適</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「調適」指的是根據環境變化或新情況進行自我適應的過程。這包括在面對壓力、挑戰或不確定性時調整自己的思維、行為或習慣，以更好地應對變動。調適是一種靈活性和適應性的表現，可能涉及學習新技能、改變心態、調整行動計劃，以達到更好的適應性。在生活中，個人和組織都需要不斷調適，以因應變化的環境，提高生存能力和應變能力。調適的過程中，人們可能會培養彈性、建立抗壓能力，並更好地理解自己在不同情境下的需求，從而實現更好的生活和工作表現。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影響</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「影響」是指一種對某事物、某人或某情勢產生變化的力量或效應。這種力量可以是正面的，促使改進或發展，也可能是負面的，引起不利的變動。影響通常源自各種因素，包括人的行為、環境條件、社會制度等。它可以是直接的、明顯的，也可能是間接的、潛在的。影響的範疇廣泛，涉及個人、組織、社會、文化等多個層面。人們在相互交往、社會互動、決策制定等過程中都會受到影響。了解影響的力量和機制有助於更好地理解和應對變化，並在不同層面上實現更積極的成長和發展。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「生態」是指生物與其環境之間的相互作用和關係。這包括植物、動物、微生物及其生存空間的綜合體系，以及它們之間的能量流、物質循環和生態學相關的各種過程。生態系統分為不同層次，從個體、族群、群落，再到生態系和生態區域。生態學研究生物的適應性、物種間的相依性、生態系統的穩定性，以及環境變化對生態系統的影響。保護和理解生態系統對於環境保護和永續發展至關重要，因為生態平衡影響人類的生存、食物安全和整體生態環境的健康。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「資源」指的是供應給人類或其他生物體以滿足其需求的各種物質、能量、信息或其他可利用的事物。資源可以分為自然資源（如水、空氣、土地、礦物）、人造資源（如技術、設施、建築物）、人力資源（指勞動力）等。這些資源在經濟、環境和社會系統中起著關鍵作用，影響生產、消費和社會發展。資源的合理利用和管理對於永續發展至關重要，以確保它們不被過度開發或浪費，同時要平衡不同群體和世代的需求。可持續性的資源管理有助於確保地球上的生態平衡和人類福祉。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多樣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「多樣」描述了一種充滿差異和變化的狀態，通常指的是具有多種不同元素、特徵或類型的事物。這個詞在自然、文化、社會等多個領域都有應用。生態系統的多樣性指的是生物物種、遺傳資源和生態系的豐富性。文化上，多樣性體現在不同的價值觀、信仰、語言和藝術形式之間。社會中的多樣性則指個體的背景、觀點和身份的差異。多樣性不僅豐富了環境和社會，還能促進創新、理解和共融。在各個層面上尊重和保護多樣性有助於建立更豐富、平等和和諧的環境。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「排放」指的是將某種物質或能量釋放到環境中的過程。這通常與空氣、水或土地上的汙染相關。排放物可以包括固體、液體或氣體，來自不同的源頭，如工業生產、交通運輸、能源生產等。排放物的影響可能對環境和人類健康產生不良效應，如大氣中的溫室氣體導致氣候變化，工業廢水對水體造成污染。管理和減少排放是環境保護和永續發展的重要目標，通過技術創新、法規制度和綠色能源的推動，有望降低不必要的環境影響，保護生態系統的健康。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推動</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「推動」是一種積極推進、促進或推進某事物發展的行動。這種行動可能包括推動新項目、政策、計劃、理念或變革。推動通常需要組織、協調和引導資源，以實現特定目標或效果。這可以在不同層面上發生，包括個人層面的自我推動，組織內的團隊合作，以及社會層面的公共推動。推動可以涉及多種手段，如宣傳、教育、溝通、協商和法規制定。在商業、政府、社區等領域，推動是實現變革和發展的關鍵動力，有助於激發創新、提高效率，並推進整個系統向更為可持續和進步的方向發展。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>變化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「變化」指的是某事物的狀態、形態或狀況發生的不同，包括持續的演進、發展或突發的轉變。變化是不可避免的自然現象，存在於生活、自然和社會各個層面。它可以是緩慢而漸進的，也可能是突然而迅速的，影響個體、組織、環境等多個層面。變化可以由內在因素或外在影響引起，並在時間和空間上產生多樣性。理解和應對變化是生活的一部分，有助於提高適應性、創造力和解決問題的能力。在不斷變動的世界中，適應和引導變化成為個人和社會發展的重要元素。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保護</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「保護」是指採取行動或制定措施，以維護、維持或防禦某事物、價值或目標免受損害、破壞或威脅。這可能包括自然環境的保護，如野生動植物、生態系統和地球資源的保護，以防止污染、棲地喪失和氣候變化。同時，保護也可以涉及社會和文化層面，包括保護文化遺產、人權、社會公正和個人隱私。在法律制度中，保護通常涉及建立法律、政策和監管機構，確保規則的遵守和對違規行為的制裁。保護的目的是確保可持續性、安全性和整體福祉，促進平衡發展，以使各種價值在長遠中得以保存和繼續存在。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「方案」是指經過計劃和安排的解決問題或達成特定目標的詳細計劃或方法。這個詞通常用於指導項目、任務或活動的整體策略。方案包括具體的步驟、時間表、資源配置和預期結果，以確保計劃的實施順利進行。在商業、政府、教育等不同領域，方案的制定和執行對於成功實現目標至關重要。它需要綜合考慮各種因素，包括預算、風險管理、人力資源等，以確保在特定情境下獲得最佳效果。有效的方案設計能夠提高工作效率，降低風險，並為各種挑戰找到合理的解決方案。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「提供」是指供給、給予或供應某物、某種資源、服務或信息。這個詞通常用來描述一方向另一方提供所需的支持或資源，以滿足需求或滿足特定目標。提供可以涉及物質層面，如食物、水、商品，也可以包括非物質層面，如知識、建議、協助。在商業環境中，企業提供商品和服務以滿足客戶需求，而在人際關係中，個人之間的互助與支持也可以視為提供。提供強調了協作和共享資源的行為，是社會、經濟和人際互動中常見的重要元素，有助於滿足各種需求，促進共同發展。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「暖化」指的是地球或某一區域氣溫長期上升的現象。這通常與人類活動釋放大量溫室氣體（如二氧化碳、甲烷）有關，這些氣體能夠吸收和保留地球上的熱量，形成溫室效應。暖化導致氣溫升高，影響氣候、海平面、生態系統等多個方面。其結果包括極端氣候事件、極端氣溫、冰川融化和海洋水溫上升。氣候變化科學家普遍認為，人為活動是當前全球暖化的主要原因。因此，減少溫室氣體排放、提高能源效益和加強環境保護措施被視為緩解暖化趨勢的重要途徑。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「減少」指的是降低、縮小或限制某一量的數量、程度或規模。這個詞通常用來描述對某種事物或現象的減量，以實現更可持續的狀態或改進特定狀況。在不同上下文中，減少可以包括減低消耗、減少浪費，或者降低某種影響。例如，減少能源使用、減少碳足跡、減少廢物產生等都是針對環境可持續性的目標。在經濟領域，減少成本和資源浪費也是企業和組織追求的目標之一。總體而言，減少是一種有意識地採取行動，以降低某項量的操作，以實現更有效率、環保或經濟效益的行為。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「方式」是指進行某項活動、達成目標或處理事務的方法、途徑或程序。這個詞彙通常用來描述特定的行動模式或手段，可以涉及技術、程序、步驟、策略等。方式的選擇可能取決於目標、環境、資源和需求等因素。在不同的情境中，可以有多種方式來解決問題或實現特定目的。例如，在教育中，有多種教學方式，包括傳統教學、互動式教學、遠程教育等。在生活中，人們可能選擇不同的方式來處理工作、交往、解決困難等。選擇合適的方式有助於提高效率、達成目標，同時也反映了個人、組織或社會的價值觀和方法論。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「專題」通常指的是一個特定主題或問題的深入研究和探討。在學術領域，專題研究是學生或研究者深入探討某一特定主題的學術活動。專題的範圍可以涵蓋各種學科和領域，如科學、人文、社會科學等。在教育環境中，學生可能被要求選擇一個專題進行研究，以提升其獨立研究和分析能力。此外，企業和組織也可能進行專題研究，以了解市場趨勢、解決問題或制定策略。專題研究的目的是深入理解特定議題，並將所得知識應用於解決實際問題或做出專業的貢獻。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4997,8 +5081,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5044,17 +5135,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5092,7 +5191,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -5126,6 +5225,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5160,9 +5260,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5335,14 +5436,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J103" sqref="J103"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5356,7 +5459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5367,13 +5470,13 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>48.33533885718838</v>
+        <v>48.335338857188383</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5381,13 +5484,16 @@
         <v>49913</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="D3">
-        <v>34.81123911406544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>34.811239114065437</v>
+      </c>
+      <c r="E3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5395,16 +5501,16 @@
         <v>33356</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>31.40057574685759</v>
+        <v>31.400575746857591</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5412,16 +5518,16 @@
         <v>37046</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>27.94163823622812</v>
+        <v>27.941638236228119</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5429,16 +5535,16 @@
         <v>38414</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>19.83922433440758</v>
+        <v>19.839224334407579</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5446,16 +5552,16 @@
         <v>7009</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>18.31540991913124</v>
+        <v>18.315409919131241</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5463,16 +5569,16 @@
         <v>14188</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>15.6014938255524</v>
+        <v>15.601493825552399</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5480,13 +5586,16 @@
         <v>49377</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="D9">
         <v>15.5503517985612</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5494,16 +5603,16 @@
         <v>48312</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>14.29771261613367</v>
+        <v>14.297712616133669</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5511,16 +5620,16 @@
         <v>5856</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>14.28759542282409</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5528,16 +5637,16 @@
         <v>39674</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>13.81683499636439</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5545,16 +5654,16 @@
         <v>25930</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>13.47846853584653</v>
+        <v>13.478468535846529</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5562,13 +5671,16 @@
         <v>21532</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="D14">
         <v>13.29524172835888</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5576,16 +5688,16 @@
         <v>26136</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>12.76829117329782</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5593,16 +5705,16 @@
         <v>37326</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>12.38368996967711</v>
+        <v>12.383689969677111</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5610,16 +5722,16 @@
         <v>18729</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>12.36033217523431</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5627,16 +5739,16 @@
         <v>41485</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>12.20765822137331</v>
+        <v>12.207658221373309</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5644,16 +5756,16 @@
         <v>44979</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>12.200722261409</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5661,16 +5773,16 @@
         <v>11539</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>11.85229510361538</v>
+        <v>11.852295103615379</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5678,16 +5790,16 @@
         <v>32336</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>11.84377039438247</v>
+        <v>11.843770394382471</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5695,16 +5807,16 @@
         <v>50464</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>11.80301689025282</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5712,16 +5824,16 @@
         <v>26834</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>11.52120041654372</v>
+        <v>11.521200416543721</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5729,16 +5841,16 @@
         <v>39255</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>11.29991918932529</v>
+        <v>11.299919189325291</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5746,16 +5858,16 @@
         <v>14489</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>11.24162631928922</v>
+        <v>11.241626319289219</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5763,13 +5875,16 @@
         <v>37274</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D26">
         <v>11.0343622149231</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5777,16 +5892,16 @@
         <v>28770</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>10.85368713891268</v>
+        <v>10.853687138912679</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5794,16 +5909,16 @@
         <v>41970</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>10.71462963782701</v>
+        <v>10.714629637827009</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5811,16 +5926,16 @@
         <v>50565</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>10.66154187134699</v>
+        <v>10.661541871346991</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5828,16 +5943,16 @@
         <v>14324</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>10.50907498865246</v>
+        <v>10.509074988652459</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5845,16 +5960,16 @@
         <v>53211</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>10.37543348140803</v>
+        <v>10.375433481408029</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5862,16 +5977,16 @@
         <v>37312</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D32">
         <v>10.2352088617191</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5879,16 +5994,16 @@
         <v>25916</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D33">
-        <v>9.941124506724067</v>
+        <v>9.9411245067240674</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5896,16 +6011,16 @@
         <v>45358</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D34">
-        <v>9.885402449019059</v>
+        <v>9.8854024490190593</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5913,16 +6028,16 @@
         <v>39037</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D35">
-        <v>9.852274687726645</v>
+        <v>9.8522746877266449</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5930,13 +6045,16 @@
         <v>50496</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="D36">
-        <v>9.7104744091085</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>9.7104744091084996</v>
+      </c>
+      <c r="E36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5944,16 +6062,16 @@
         <v>32410</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D37">
-        <v>9.658784054967658</v>
+        <v>9.6587840549676578</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5961,16 +6079,16 @@
         <v>14908</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>9.533618327451594</v>
+        <v>9.5336183274515935</v>
       </c>
       <c r="E38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5978,16 +6096,16 @@
         <v>40065</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D39">
-        <v>9.514599349024801</v>
+        <v>9.5145993490248006</v>
       </c>
       <c r="E39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5995,16 +6113,16 @@
         <v>43272</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D40">
-        <v>9.446756815836711</v>
+        <v>9.4467568158367108</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6012,16 +6130,16 @@
         <v>1290</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D41">
-        <v>9.40180823462695</v>
+        <v>9.4018082346269498</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6029,16 +6147,16 @@
         <v>40855</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D42">
-        <v>9.335872758554208</v>
+        <v>9.3358727585542081</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6046,13 +6164,16 @@
         <v>15665</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="D43">
-        <v>9.29531014769605</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>9.2953101476960498</v>
+      </c>
+      <c r="E43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6060,16 +6181,16 @@
         <v>58117</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D44">
-        <v>8.928410722185053</v>
+        <v>8.9284107221850526</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6077,16 +6198,16 @@
         <v>40339</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D45">
-        <v>8.793997833362281</v>
+        <v>8.7939978333622815</v>
       </c>
       <c r="E45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6094,16 +6215,16 @@
         <v>51995</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D46">
-        <v>8.643119472274654</v>
+        <v>8.6431194722746536</v>
       </c>
       <c r="E46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6111,16 +6232,16 @@
         <v>3566</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D47">
-        <v>8.552537021470405</v>
+        <v>8.5525370214704051</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6128,16 +6249,16 @@
         <v>33107</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D48">
         <v>8.523955056073758</v>
       </c>
       <c r="E48" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6145,16 +6266,16 @@
         <v>42890</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D49">
-        <v>8.510998064702513</v>
+        <v>8.5109980647025125</v>
       </c>
       <c r="E49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6162,16 +6283,16 @@
         <v>3803</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D50">
-        <v>8.505623867876213</v>
+        <v>8.5056238678762135</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6179,16 +6300,16 @@
         <v>1856</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D51">
-        <v>8.421618234777206</v>
+        <v>8.4216182347772062</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6196,16 +6317,16 @@
         <v>33393</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D52">
-        <v>8.34978422689581</v>
+        <v>8.3497842268958102</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6213,13 +6334,16 @@
         <v>24690</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="D53">
-        <v>8.254306789426122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>8.2543067894261224</v>
+      </c>
+      <c r="E53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6227,16 +6351,16 @@
         <v>13623</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D54">
-        <v>8.134993724718843</v>
+        <v>8.1349937247188429</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6244,16 +6368,16 @@
         <v>47771</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D55">
-        <v>8.124002111185051</v>
+        <v>8.1240021111850513</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6261,16 +6385,16 @@
         <v>4420</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D56">
-        <v>8.051723192399102</v>
+        <v>8.0517231923991019</v>
       </c>
       <c r="E56" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6278,16 +6402,16 @@
         <v>29098</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D57">
         <v>8.051575284835863</v>
       </c>
       <c r="E57" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6295,16 +6419,16 @@
         <v>34273</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D58">
-        <v>8.012403163969664</v>
+        <v>8.0124031639696636</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6312,13 +6436,16 @@
         <v>24958</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="D59">
-        <v>7.952615635141793</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>7.9526156351417931</v>
+      </c>
+      <c r="E59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6326,16 +6453,16 @@
         <v>32027</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D60">
-        <v>7.925833133759197</v>
+        <v>7.9258331337591974</v>
       </c>
       <c r="E60" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6343,16 +6470,16 @@
         <v>43100</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D61">
-        <v>7.873941470592786</v>
+        <v>7.8739414705927864</v>
       </c>
       <c r="E61" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -6360,16 +6487,16 @@
         <v>48770</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D62">
-        <v>7.600009708034751</v>
+        <v>7.6000097080347508</v>
       </c>
       <c r="E62" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6377,16 +6504,16 @@
         <v>46003</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D63">
-        <v>7.563030781369459</v>
+        <v>7.5630307813694593</v>
       </c>
       <c r="E63" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6394,13 +6521,16 @@
         <v>49792</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="D64">
         <v>7.51650328220936</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="E64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6408,13 +6538,16 @@
         <v>5446</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="D65">
-        <v>7.510703424452448</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>7.5107034244524478</v>
+      </c>
+      <c r="E65" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6422,16 +6555,16 @@
         <v>19901</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D66">
-        <v>7.453891954450637</v>
+        <v>7.4538919544506372</v>
       </c>
       <c r="E66" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6439,16 +6572,16 @@
         <v>26606</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D67">
-        <v>7.390100891250485</v>
+        <v>7.3901008912504853</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6456,16 +6589,16 @@
         <v>12398</v>
       </c>
       <c r="C68" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D68">
-        <v>7.327769081102694</v>
+        <v>7.3277690811026943</v>
       </c>
       <c r="E68" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6473,16 +6606,16 @@
         <v>30864</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D69">
-        <v>7.165129719724129</v>
+        <v>7.1651297197241286</v>
       </c>
       <c r="E69" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6490,16 +6623,16 @@
         <v>35563</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D70">
-        <v>7.0310787927208</v>
+        <v>7.0310787927208001</v>
       </c>
       <c r="E70" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6507,16 +6640,16 @@
         <v>47280</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D71">
-        <v>7.01419742458047</v>
+        <v>7.0141974245804697</v>
       </c>
       <c r="E71" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6524,16 +6657,16 @@
         <v>41432</v>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D72">
-        <v>6.976633329933581</v>
+        <v>6.9766333299335814</v>
       </c>
       <c r="E72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6541,13 +6674,16 @@
         <v>26975</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="D73">
-        <v>6.892039273492498</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>6.8920392734924976</v>
+      </c>
+      <c r="E73" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6555,16 +6691,16 @@
         <v>3467</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D74">
-        <v>6.873331940912852</v>
+        <v>6.8733319409128519</v>
       </c>
       <c r="E74" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6572,16 +6708,16 @@
         <v>40270</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D75">
-        <v>6.866668198580355</v>
+        <v>6.8666681985803546</v>
       </c>
       <c r="E75" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6589,16 +6725,16 @@
         <v>35158</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D76">
-        <v>6.809492818127916</v>
+        <v>6.8094928181279162</v>
       </c>
       <c r="E76" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6606,13 +6742,16 @@
         <v>25135</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="D77">
-        <v>6.778897209206239</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>6.7788972092062387</v>
+      </c>
+      <c r="E77" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6620,16 +6759,16 @@
         <v>37486</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D78">
-        <v>6.68806121817378</v>
+        <v>6.6880612181737797</v>
       </c>
       <c r="E78" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6637,16 +6776,16 @@
         <v>47255</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D79">
-        <v>6.674883682269479</v>
+        <v>6.6748836822694786</v>
       </c>
       <c r="E79" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6654,16 +6793,16 @@
         <v>9085</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D80">
-        <v>6.664262392587096</v>
+        <v>6.6642623925870961</v>
       </c>
       <c r="E80" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6671,16 +6810,16 @@
         <v>34814</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D81">
-        <v>6.597039226570585</v>
+        <v>6.5970392265705851</v>
       </c>
       <c r="E81" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6688,13 +6827,16 @@
         <v>27838</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="D82">
-        <v>6.552359060469547</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>6.5523590604695467</v>
+      </c>
+      <c r="E82" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6702,16 +6844,16 @@
         <v>38196</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D83">
-        <v>6.542148602184167</v>
+        <v>6.5421486021841666</v>
       </c>
       <c r="E83" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6719,13 +6861,16 @@
         <v>33870</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D84">
-        <v>6.490478041675178</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>6.4904780416751784</v>
+      </c>
+      <c r="E84" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6733,16 +6878,16 @@
         <v>25819</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D85">
-        <v>6.467940051685582</v>
+        <v>6.4679400516855816</v>
       </c>
       <c r="E85" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6750,16 +6895,16 @@
         <v>8205</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D86">
-        <v>6.422432782206347</v>
+        <v>6.4224327822063474</v>
       </c>
       <c r="E86" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6767,16 +6912,16 @@
         <v>13783</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D87">
-        <v>6.378612925703738</v>
+        <v>6.3786129257037381</v>
       </c>
       <c r="E87" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6784,13 +6929,16 @@
         <v>26969</v>
       </c>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="D88">
-        <v>6.365833859839745</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>6.3658338598397446</v>
+      </c>
+      <c r="E88" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6798,16 +6946,16 @@
         <v>2243</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D89">
-        <v>6.296543631013597</v>
+        <v>6.2965436310135967</v>
       </c>
       <c r="E89" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6815,16 +6963,16 @@
         <v>51204</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D90">
-        <v>6.140221852397142</v>
+        <v>6.1402218523971417</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6832,16 +6980,16 @@
         <v>23950</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D91">
-        <v>6.132464738989057</v>
+        <v>6.1324647389890572</v>
       </c>
       <c r="E91" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6849,16 +6997,16 @@
         <v>57624</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D92">
         <v>6.11880756876847</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6866,13 +7014,16 @@
         <v>18846</v>
       </c>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D93">
-        <v>6.105573183089113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>6.1055731830891133</v>
+      </c>
+      <c r="E93" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6880,16 +7031,16 @@
         <v>8502</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D94">
         <v>6.098721596232604</v>
       </c>
       <c r="E94" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6897,16 +7048,16 @@
         <v>13383</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D95">
-        <v>6.052233104330014</v>
+        <v>6.0522331043300142</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6914,16 +7065,16 @@
         <v>55311</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D96">
         <v>6.032894125395023</v>
       </c>
       <c r="E96" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6931,16 +7082,16 @@
         <v>8137</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D97">
-        <v>5.928346041386336</v>
+        <v>5.9283460413863356</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6948,16 +7099,16 @@
         <v>56718</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D98">
-        <v>5.873652733303405</v>
+        <v>5.8736527333034054</v>
       </c>
       <c r="E98" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6965,16 +7116,16 @@
         <v>33370</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D99">
-        <v>5.859196015788415</v>
+        <v>5.8591960157884149</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6982,16 +7133,16 @@
         <v>47181</v>
       </c>
       <c r="C100" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D100">
-        <v>5.823295211122844</v>
+        <v>5.8232952111228444</v>
       </c>
       <c r="E100" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6999,16 +7150,17 @@
         <v>54217</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D101">
-        <v>5.812030170136859</v>
+        <v>5.8120301701368593</v>
       </c>
       <c r="E101" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>